--- a/Files/Templates/RequestTemplate.xlsx
+++ b/Files/Templates/RequestTemplate.xlsx
@@ -40,7 +40,7 @@
     <t>Срок за изпитване: #D дни</t>
   </si>
   <si>
-    <t>ЗАЯВКА № #NUMBER / Дата #DATE</t>
+    <t>ЗАЯВКА № #NUMBER / Дата #DATE / Час #TIME</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Files/Templates/RequestTemplate.xlsx
+++ b/Files/Templates/RequestTemplate.xlsx
@@ -14,40 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ЛАБОРАТОРИЯ ЗА ИЗПИТВАНЕ КЪМ РВС – РУСЕ ЕООД</t>
+    <t>ЛАБОРАТОРИЯ ЗА ИЗПИТВАНЕ КЪМ "РВС – РУСЕ" ЕООД</t>
   </si>
   <si>
-    <t>ФК 404-4</t>
+    <t>ОФИС гр. РУСЕ и ОФИС гр. СОФИЯ</t>
   </si>
   <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Вид на пробата</t>
-  </si>
-  <si>
-    <t>Показатели за изпитване</t>
-  </si>
-  <si>
-    <t>Брой/ количество</t>
-  </si>
-  <si>
-    <t>Приел пробата:………….</t>
-  </si>
-  <si>
-    <t>Срок за изпитване: #D дни</t>
-  </si>
-  <si>
-    <t>ЗАЯВКА № #NUMBER / Дата #DATE / Час #TIME</t>
+    <t xml:space="preserve">ФК 404-4   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +44,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -85,26 +61,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -112,27 +73,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,102 +391,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Files/Templates/RequestTemplate.xlsx
+++ b/Files/Templates/RequestTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,26 +394,26 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>1</v>
@@ -433,14 +433,14 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -448,13 +448,13 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
